--- a/reports/corpus_1-unigram_bigram-fold-2.xlsx
+++ b/reports/corpus_1-unigram_bigram-fold-2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>!</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -446,170 +446,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>CDA</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>CDC</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>CDI</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>CDO</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>CDP</t>
+          <t>CON</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>DRB</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>DS</t>
+          <t>JJ</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>FRB</t>
+          <t>NEG</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>JJ</t>
+          <t>NNP</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>PRP</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>NEG</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>RP</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>NNC</t>
+          <t>SYM</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>NNG</t>
+          <t>VB</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>NNP</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>NNU</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>PRL</t>
+          <t>macro avg</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>PRP</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>RP</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>SYM</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>TRB</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>VBI</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>VBK</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>VBR</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>VBT</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>WDT</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>WP</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>macro avg</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>weighted avg</t>
         </is>
@@ -622,112 +557,73 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.8835978835978836</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7375</v>
+        <v>0.9594594594594594</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2</v>
+        <v>0.3705882352941177</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.84</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.9701492537313433</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7358490566037735</v>
+        <v>0.9903536977491961</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1184210526315789</v>
+        <v>0.4372294372294372</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9476439790575916</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.5965665236051502</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9848484848484849</v>
+        <v>0.8040540540540541</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2713178294573643</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0625</v>
+        <v>0.3463203463203463</v>
       </c>
       <c r="U2" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1836734693877551</v>
+        <v>0.7382929259382265</v>
       </c>
       <c r="W2" t="n">
-        <v>0.5</v>
+        <v>0.6973673134654034</v>
       </c>
       <c r="X2" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.5909090909090909</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.09210526315789473</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.3628318584070797</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.5345858240819812</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.3881544810329323</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.8507219680629162</v>
+        <v>0.8658172083524115</v>
       </c>
     </row>
     <row r="3">
@@ -743,106 +639,67 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.9375</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.9653179190751445</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0.993006993006993</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.9719626168224299</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0.4652567975830816</v>
       </c>
       <c r="O3" t="n">
-        <v>0.75</v>
+        <v>0.9711538461538461</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.7808988764044944</v>
       </c>
       <c r="R3" t="n">
-        <v>0.108695652173913</v>
+        <v>0.9596774193548387</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0.9195402298850575</v>
       </c>
       <c r="U3" t="n">
         <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0.7382929259382265</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>0.9404379571365166</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.9285714285714286</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.9655172413793104</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.8913043478260869</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0.5345858240819812</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.6847415037070209</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0.5345858240819812</v>
+        <v>0.7382929259382265</v>
       </c>
     </row>
     <row r="4">
@@ -852,112 +709,73 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.9714285714285714</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.53125</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.9226519337016574</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8489208633093526</v>
+        <v>0.9759450171821306</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.9285714285714285</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.525</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9642857142857143</v>
+        <v>0.9130434782608696</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.9848484848484849</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8478260869565216</v>
+        <v>0.6330935251798562</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2045454545454545</v>
+        <v>0.6029850746268656</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.9731182795698924</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7272727272727274</v>
+        <v>0.6763990267639903</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1957831325301205</v>
+        <v>0.8749999999999999</v>
       </c>
       <c r="S4" t="n">
-        <v>0.4268292682926829</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.5031446540880502</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8518518518518519</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="V4" t="n">
-        <v>0.3103448275862069</v>
+        <v>0.7382929259382265</v>
       </c>
       <c r="W4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7597094226274985</v>
       </c>
       <c r="X4" t="n">
-        <v>0.8505747126436781</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.40625</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.8115942028985508</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.7428571428571429</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.1686746987951807</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.4444444444444445</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.5157232704402516</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0.5345858240819812</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.4382520064798767</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0.4876439605024331</v>
+        <v>0.7439962561550382</v>
       </c>
     </row>
     <row r="5">
@@ -967,112 +785,73 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>278</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="I5" t="n">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="L5" t="n">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N5" t="n">
-        <v>39</v>
+        <v>1324</v>
       </c>
       <c r="O5" t="n">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="P5" t="n">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="Q5" t="n">
-        <v>21</v>
+        <v>178</v>
       </c>
       <c r="R5" t="n">
-        <v>598</v>
+        <v>124</v>
       </c>
       <c r="S5" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="U5" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="V5" t="n">
-        <v>9</v>
+        <v>0.7382929259382265</v>
       </c>
       <c r="W5" t="n">
-        <v>4</v>
+        <v>3011</v>
       </c>
       <c r="X5" t="n">
-        <v>37</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>46</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0.5345858240819812</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>1171</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1171</v>
+        <v>3011</v>
       </c>
     </row>
   </sheetData>

--- a/reports/corpus_1-unigram_bigram-fold-2.xlsx
+++ b/reports/corpus_1-unigram_bigram-fold-2.xlsx
@@ -557,73 +557,73 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3695652173913043</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="F2" t="n">
-        <v>0.25</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8835978835978836</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9594594594594594</v>
+        <v>0.9797297297297297</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9572649572649573</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3705882352941177</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L2" t="n">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="M2" t="n">
         <v>0.9701492537313433</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9903536977491961</v>
+        <v>0.9790996784565916</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4372294372294372</v>
+        <v>0.5844155844155844</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9476439790575916</v>
+        <v>0.9633507853403142</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5965665236051502</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8040540540540541</v>
+        <v>0.8175675675675675</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3463203463203463</v>
+        <v>0.5779220779220779</v>
       </c>
       <c r="U2" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7382929259382265</v>
+        <v>0.8379275988043839</v>
       </c>
       <c r="W2" t="n">
-        <v>0.6973673134654034</v>
+        <v>0.8390390091152631</v>
       </c>
       <c r="X2" t="n">
-        <v>0.8658172083524115</v>
+        <v>0.8839512515467656</v>
       </c>
     </row>
     <row r="3">
@@ -642,25 +642,25 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.9</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9375</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9653179190751445</v>
+        <v>0.9625668449197861</v>
       </c>
       <c r="I3" t="n">
-        <v>0.993006993006993</v>
+        <v>0.9863945578231292</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9719626168224299</v>
+        <v>0.9572649572649573</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9</v>
+        <v>0.9401709401709402</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -669,37 +669,37 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4652567975830816</v>
+        <v>0.6096096096096096</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9711538461538461</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7808988764044944</v>
+        <v>0.8264462809917356</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9596774193548387</v>
+        <v>0.9603174603174603</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9195402298850575</v>
+        <v>0.9303135888501742</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="V3" t="n">
-        <v>0.7382929259382265</v>
+        <v>0.8379275988043839</v>
       </c>
       <c r="W3" t="n">
-        <v>0.9404379571365166</v>
+        <v>0.9429243983327934</v>
       </c>
       <c r="X3" t="n">
-        <v>0.7382929259382265</v>
+        <v>0.8379275988043839</v>
       </c>
     </row>
     <row r="4">
@@ -709,73 +709,73 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9714285714285714</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.53125</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9226519337016574</v>
+        <v>0.9574468085106382</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9759450171821306</v>
+        <v>0.9830508474576271</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9285714285714285</v>
+        <v>0.9572649572649573</v>
       </c>
       <c r="K4" t="n">
-        <v>0.525</v>
+        <v>0.7665505226480837</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9130434782608696</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="M4" t="n">
         <v>0.9848484848484849</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6330935251798562</v>
+        <v>0.7513880320789637</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6029850746268656</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9731182795698924</v>
+        <v>0.9813333333333333</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6763990267639903</v>
+        <v>0.8421052631578949</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8749999999999999</v>
+        <v>0.8832116788321167</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5031446540880502</v>
+        <v>0.7129506008010682</v>
       </c>
       <c r="U4" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.8636363636363635</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7382929259382265</v>
+        <v>0.8379275988043839</v>
       </c>
       <c r="W4" t="n">
-        <v>0.7597094226274985</v>
+        <v>0.874381766732068</v>
       </c>
       <c r="X4" t="n">
-        <v>0.7439962561550382</v>
+        <v>0.8385346989248441</v>
       </c>
     </row>
     <row r="5">
@@ -785,67 +785,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>278</v>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H5" t="n">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="I5" t="n">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="J5" t="n">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="K5" t="n">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="L5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M5" t="n">
         <v>65</v>
       </c>
       <c r="N5" t="n">
-        <v>1324</v>
+        <v>999</v>
       </c>
       <c r="O5" t="n">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="P5" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q5" t="n">
-        <v>178</v>
+        <v>242</v>
       </c>
       <c r="R5" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S5" t="n">
         <v>4</v>
       </c>
       <c r="T5" t="n">
-        <v>174</v>
+        <v>287</v>
       </c>
       <c r="U5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7382929259382265</v>
+        <v>0.8379275988043839</v>
       </c>
       <c r="W5" t="n">
         <v>3011</v>
